--- a/Daily Inventory/uploads/stock_report.xlsx
+++ b/Daily Inventory/uploads/stock_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qadri Laptop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7AACF1-A6D2-49A2-8511-BE534C5BD99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983560B5-ABAC-4471-B337-383BA5D17B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Product ID</t>
   </si>
@@ -61,6 +61,66 @@
   </si>
   <si>
     <t>Issuance Stock</t>
+  </si>
+  <si>
+    <t>Khayyam Special BBQ Platter - Half</t>
+  </si>
+  <si>
+    <t>7Up - Tin Pack Diet</t>
+  </si>
+  <si>
+    <t>Tandoori Roti - -</t>
+  </si>
+  <si>
+    <t>Chicken Green Chilli With Lemon - Half</t>
+  </si>
+  <si>
+    <t>Stuffed Crust Pizza - Medium</t>
+  </si>
+  <si>
+    <t>7Up - Tin Pack</t>
+  </si>
+  <si>
+    <t>7Up - Ltr</t>
+  </si>
+  <si>
+    <t>Khayyam Special Pizza - Medium</t>
+  </si>
+  <si>
+    <t>Peshawri Chicken Karahi - Half</t>
+  </si>
+  <si>
+    <t>FV07.</t>
+  </si>
+  <si>
+    <t>Hot &amp; Sour Soup - Half</t>
+  </si>
+  <si>
+    <t>FV070.</t>
+  </si>
+  <si>
+    <t>Chicken Karahi - Half</t>
+  </si>
+  <si>
+    <t>FV071.</t>
+  </si>
+  <si>
+    <t>Chicken Afghani Karahi - Half</t>
+  </si>
+  <si>
+    <t>FV072.</t>
+  </si>
+  <si>
+    <t>Chicken Achari Karahi - Half</t>
+  </si>
+  <si>
+    <t>FV073.</t>
+  </si>
+  <si>
+    <t>Chicken Bombay Handi - Half</t>
+  </si>
+  <si>
+    <t>Product Name</t>
   </si>
   <si>
     <t>Physical Stock</t>
@@ -391,157 +451,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="33.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>100</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>100</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>100</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>100</v>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>100</v>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>100</v>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>100</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>100</v>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
         <v>85</v>
       </c>
     </row>
